--- a/labs/lab3/fluff_tablel3-n.xlsx
+++ b/labs/lab3/fluff_tablel3-n.xlsx
@@ -389,13 +389,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.401954619565376</v>
+        <v>-0.05479815075587846</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01203952261077235</v>
+        <v>-0.043967052216493</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02995244245181308</v>
+        <v>0.8023455465196777</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -403,13 +403,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01203952261077235</v>
+        <v>-0.043967052216493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002845501024570707</v>
+        <v>0.0005085818044778811</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236346665608211</v>
+        <v>0.01156733915145444</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -417,13 +417,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002845501024570707</v>
+        <v>0.0005085818044778811</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0004768444727731858</v>
+        <v>-3.758094060735129e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1675783873053168</v>
+        <v>0.07389360035389494</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -431,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0004768444727731858</v>
+        <v>-3.758094060735129e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>7.708574460008055e-05</v>
+        <v>-2.61509441301655e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1616580436631105</v>
+        <v>0.06958565620640708</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.708574460008055e-05</v>
+        <v>-2.61509441301655e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001141398918208525</v>
+        <v>2.662474661851988e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>1.480687413905232</v>
+        <v>0.1018117987862925</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -459,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001141398918208525</v>
+        <v>2.662474661851988e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.065614471073566e-05</v>
+        <v>5.168764072305265e-08</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5314193288875559</v>
+        <v>0.1941338314449885</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -473,13 +473,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.065614471073566e-05</v>
+        <v>5.168764072305265e-08</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0001257497812050534</v>
+        <v>-3.258101455294593e-09</v>
       </c>
       <c r="D8" t="n">
-        <v>2.073158157425668</v>
+        <v>0.06303443936920654</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -487,13 +487,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001257497812050534</v>
+        <v>-3.258101455294593e-09</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.6302354462705e-05</v>
+        <v>-1.52155088528616e-09</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1296412153284118</v>
+        <v>0.4670053729645395</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -501,13 +501,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.6302354462705e-05</v>
+        <v>-1.52155088528616e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001739980350020653</v>
+        <v>1.757882728270488e-11</v>
       </c>
       <c r="D10" t="n">
-        <v>10.67318437960122</v>
+        <v>0.0115532299660151</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -515,13 +515,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0001739980350020653</v>
+        <v>1.757882728270488e-11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003017891512064885</v>
+        <v>5.363043342754281e-11</v>
       </c>
       <c r="D11" t="n">
-        <v>1.73443999642241</v>
+        <v>3.050853880355699</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -529,13 +529,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0003017891512064885</v>
+        <v>5.363043342754281e-11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002487650438506295</v>
+        <v>2.524980224904994e-12</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8243008168322817</v>
+        <v>0.04708110793690225</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -543,13 +543,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0002487650438506295</v>
+        <v>2.524980224904994e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.692852954750858e-05</v>
+        <v>-2.049471703458039e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1484474224187312</v>
+        <v>0.8116783186035263</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -557,13 +557,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.692852954750858e-05</v>
+        <v>-2.049471703458039e-12</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.000526125648812048</v>
+        <v>-2.40918396343659e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>14.24713237322886</v>
+        <v>0.1175514626218852</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -571,13 +571,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.000526125648812048</v>
+        <v>-2.40918396343659e-13</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.001114705549139616</v>
+        <v>7.926992395823618e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>2.118705962456948</v>
+        <v>0.3290322580645161</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -585,13 +585,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.001114705549139616</v>
+        <v>7.926992395823618e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.001644479261742937</v>
+        <v>1.687538997430238e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>1.475258881605304</v>
+        <v>0.2128851540616246</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -599,13 +599,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.001644479261742937</v>
+        <v>1.687538997430238e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.001933005607183569</v>
+        <v>-2.775557561562891e-15</v>
       </c>
       <c r="D17" t="n">
-        <v>1.175451495286618</v>
+        <v>0.1644736842105263</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -613,13 +613,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.001933005607183569</v>
+        <v>-2.775557561562891e-15</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.001806351482931068</v>
+        <v>-1.110223024625157e-15</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9344781392346612</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -627,13 +627,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.001806351482931068</v>
+        <v>-1.110223024625157e-15</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.00112908473427209</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6250636960421379</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/labs/lab3/fluff_tablel3-n.xlsx
+++ b/labs/lab3/fluff_tablel3-n.xlsx
@@ -389,13 +389,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.05479815075587846</v>
+        <v>-1.95235100931754</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.043967052216493</v>
+        <v>-0.2046718843831292</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8023455465196777</v>
+        <v>0.1048335485813455</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -403,13 +403,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.043967052216493</v>
+        <v>-0.2046718843831292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005085818044778811</v>
+        <v>0.5321086915947104</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01156733915145444</v>
+        <v>2.599813321690271</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -417,13 +417,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0005085818044778811</v>
+        <v>0.5321086915947104</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.758094060735129e-05</v>
+        <v>0.3566796656342675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07389360035389494</v>
+        <v>0.6703135492211403</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -431,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.758094060735129e-05</v>
+        <v>0.3566796656342675</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.61509441301655e-06</v>
+        <v>0.05766013696076833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06958565620640708</v>
+        <v>0.1616580436628869</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.61509441301655e-06</v>
+        <v>0.05766013696076833</v>
       </c>
       <c r="C6" t="n">
-        <v>2.662474661851988e-07</v>
+        <v>-0.02134415977050086</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1018117987862925</v>
+        <v>0.3701718534769232</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -459,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2.662474661851988e-07</v>
+        <v>-0.02134415977050086</v>
       </c>
       <c r="C7" t="n">
-        <v>5.168764072305265e-08</v>
+        <v>0.001031154460082728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1941338314449885</v>
+        <v>0.04831084808069404</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -473,13 +473,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.168764072305265e-08</v>
+        <v>0.001031154460082728</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.258101455294593e-09</v>
+        <v>0.0006107846515672755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06303443936920654</v>
+        <v>0.5923309021213689</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -487,13 +487,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.258101455294593e-09</v>
+        <v>0.0006107846515672755</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.52155088528616e-09</v>
+        <v>3.260470892563205e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4670053729645395</v>
+        <v>0.05338167690030891</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -501,13 +501,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.52155088528616e-09</v>
+        <v>3.260470892563205e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>1.757882728270488e-11</v>
+        <v>-0.0001739980350023984</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0115532299660151</v>
+        <v>5.336592189774484</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -515,13 +515,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.757882728270488e-11</v>
+        <v>-0.0001739980350023984</v>
       </c>
       <c r="C11" t="n">
-        <v>5.363043342754281e-11</v>
+        <v>-0.000170576476768769</v>
       </c>
       <c r="D11" t="n">
-        <v>3.050853880355699</v>
+        <v>0.9803356501492544</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -529,13 +529,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5.363043342754281e-11</v>
+        <v>-0.000170576476768769</v>
       </c>
       <c r="C12" t="n">
-        <v>2.524980224904994e-12</v>
+        <v>-8.652697177424784e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04708110793690225</v>
+        <v>0.5072620411285816</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -543,13 +543,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2.524980224904994e-12</v>
+        <v>-8.652697177424784e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.049471703458039e-12</v>
+        <v>8.415496988600779e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8116783186035263</v>
+        <v>0.09725865607035378</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -557,13 +557,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.049471703458039e-12</v>
+        <v>8.415496988600779e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.40918396343659e-13</v>
+        <v>8.242898096044726e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1175514626218852</v>
+        <v>9.794903506245861</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -571,13 +571,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.40918396343659e-13</v>
+        <v>8.242898096044726e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>7.926992395823618e-14</v>
+        <v>0.0001247448381724858</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3290322580645161</v>
+        <v>1.51336140176649</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -585,13 +585,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7.926992395823618e-14</v>
+        <v>0.0001247448381724858</v>
       </c>
       <c r="C16" t="n">
-        <v>1.687538997430238e-14</v>
+        <v>0.0001356017382243557</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2128851540616246</v>
+        <v>1.087032860124104</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -599,13 +599,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.687538997430238e-14</v>
+        <v>0.0001356017382243557</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.775557561562891e-15</v>
+        <v>0.0001205168596283279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.8887560086356003</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -613,13 +613,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.775557561562891e-15</v>
+        <v>0.0001205168596283279</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.110223024625157e-15</v>
+        <v>8.702483192868371e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4</v>
+        <v>0.722096743949908</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -627,13 +627,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.110223024625157e-15</v>
+        <v>8.702483192868371e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4.28224326478599e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.4920714202924587</v>
       </c>
     </row>
   </sheetData>
